--- a/techniqo/data_new_ticker/STARCEMENT.xlsx
+++ b/techniqo/data_new_ticker/STARCEMENT.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1354"/>
+  <dimension ref="A1:G1356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47776,6 +47776,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1355" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>98793</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1356" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>91.55</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>64450</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/STARCEMENT.xlsx
+++ b/techniqo/data_new_ticker/STARCEMENT.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1356"/>
+  <dimension ref="A1:G1358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47826,6 +47826,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1357" t="n">
+        <v>89.75</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>91.45</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>89.75</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>95199</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1358" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>88.65000000000001</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>112290</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
